--- a/biology/Botanique/Terret_blanc/Terret_blanc.xlsx
+++ b/biology/Botanique/Terret_blanc/Terret_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le terret blanc est un cépage de France de raisins blancs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terret blanc (tout comme le terret gris) est une variété du terret noir. Avec 2 886 hectares (en 1999), le cépage est cultivé principalement dans la région méditerranéenne en bordure de l'étang de Thau.
 </t>
@@ -543,7 +557,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau épanoui, cotonneux blanc à liseré carminé.
 Jeune feuilles duveteuses, à plages bronzées
@@ -575,7 +591,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de troisième époque tardive : 35 jours après le chasselas.
 </t>
@@ -606,7 +624,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes à grandes et les baies oblongues sont de taille moyenne. La grappe est tronconique, compacte et ailée. Le cépage est vigoureux mais moyennement productif. Il donne selon les sols et type de vins de 50 hl/ha en dans les coteaux à près de 100 – 150 hl/ha dans les bonnes terres en zone de plaine. Le terret est généralement conduit en gobelet à taille courte. Il est peu sensible à l'excoriose et à la pourriture grise, mais il craint l'oïdium le mildiou et les vers de la grappe.
 </t>
@@ -637,7 +657,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terret blanc est connu sous les noms bourret blanc et tarret blanc.
 </t>
